--- a/synuclein_inclusion_biogenesis_2024/image_analysis/mitophagy/081125_SUMMARY.xlsx
+++ b/synuclein_inclusion_biogenesis_2024/image_analysis/mitophagy/081125_SUMMARY.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E84"/>
+  <dimension ref="A1:G84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,6 +459,16 @@
           <t>Number of Mitophagy Events Outside Dialated Area</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Surface Area of Donut</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Surface Area of Cytoplasm without Donut</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -478,6 +488,12 @@
       <c r="E2" t="n">
         <v>2</v>
       </c>
+      <c r="F2" t="n">
+        <v>2827</v>
+      </c>
+      <c r="G2" t="n">
+        <v>45902</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -497,6 +513,12 @@
       <c r="E3" t="n">
         <v>0</v>
       </c>
+      <c r="F3" t="n">
+        <v>1704</v>
+      </c>
+      <c r="G3" t="n">
+        <v>22572</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -516,6 +538,12 @@
       <c r="E4" t="n">
         <v>0</v>
       </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>38014</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -535,6 +563,12 @@
       <c r="E5" t="n">
         <v>0</v>
       </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>29299</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -554,6 +588,12 @@
       <c r="E6" t="n">
         <v>0</v>
       </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>3299</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -573,6 +613,12 @@
       <c r="E7" t="n">
         <v>3</v>
       </c>
+      <c r="F7" t="n">
+        <v>2064</v>
+      </c>
+      <c r="G7" t="n">
+        <v>29183</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -592,6 +638,12 @@
       <c r="E8" t="n">
         <v>0</v>
       </c>
+      <c r="F8" t="n">
+        <v>63</v>
+      </c>
+      <c r="G8" t="n">
+        <v>24040</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -611,6 +663,12 @@
       <c r="E9" t="n">
         <v>0</v>
       </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>5029</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -630,6 +688,12 @@
       <c r="E10" t="n">
         <v>0</v>
       </c>
+      <c r="F10" t="n">
+        <v>357</v>
+      </c>
+      <c r="G10" t="n">
+        <v>24150</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -649,6 +713,12 @@
       <c r="E11" t="n">
         <v>0</v>
       </c>
+      <c r="F11" t="n">
+        <v>42</v>
+      </c>
+      <c r="G11" t="n">
+        <v>6484</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -668,6 +738,12 @@
       <c r="E12" t="n">
         <v>0</v>
       </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>14105</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -687,6 +763,12 @@
       <c r="E13" t="n">
         <v>0</v>
       </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>3710</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -706,6 +788,12 @@
       <c r="E14" t="n">
         <v>0</v>
       </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>2983</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -725,6 +813,12 @@
       <c r="E15" t="n">
         <v>0</v>
       </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>27388</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -744,6 +838,12 @@
       <c r="E16" t="n">
         <v>0</v>
       </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>11914</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -763,6 +863,12 @@
       <c r="E17" t="n">
         <v>4</v>
       </c>
+      <c r="F17" t="n">
+        <v>456</v>
+      </c>
+      <c r="G17" t="n">
+        <v>33597</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -782,6 +888,12 @@
       <c r="E18" t="n">
         <v>0</v>
       </c>
+      <c r="F18" t="n">
+        <v>3414</v>
+      </c>
+      <c r="G18" t="n">
+        <v>39797</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -801,6 +913,12 @@
       <c r="E19" t="n">
         <v>0</v>
       </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>14254</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -820,6 +938,12 @@
       <c r="E20" t="n">
         <v>6</v>
       </c>
+      <c r="F20" t="n">
+        <v>9760</v>
+      </c>
+      <c r="G20" t="n">
+        <v>63063</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -839,6 +963,12 @@
       <c r="E21" t="n">
         <v>0</v>
       </c>
+      <c r="F21" t="n">
+        <v>3058</v>
+      </c>
+      <c r="G21" t="n">
+        <v>9324</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -858,6 +988,12 @@
       <c r="E22" t="n">
         <v>0</v>
       </c>
+      <c r="F22" t="n">
+        <v>40</v>
+      </c>
+      <c r="G22" t="n">
+        <v>33694</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -877,6 +1013,12 @@
       <c r="E23" t="n">
         <v>0</v>
       </c>
+      <c r="F23" t="n">
+        <v>2125</v>
+      </c>
+      <c r="G23" t="n">
+        <v>32967</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -896,6 +1038,12 @@
       <c r="E24" t="n">
         <v>3</v>
       </c>
+      <c r="F24" t="n">
+        <v>5443</v>
+      </c>
+      <c r="G24" t="n">
+        <v>26192</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -915,6 +1063,12 @@
       <c r="E25" t="n">
         <v>0</v>
       </c>
+      <c r="F25" t="n">
+        <v>678</v>
+      </c>
+      <c r="G25" t="n">
+        <v>12555</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -934,6 +1088,12 @@
       <c r="E26" t="n">
         <v>0</v>
       </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>15837</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -953,6 +1113,12 @@
       <c r="E27" t="n">
         <v>0</v>
       </c>
+      <c r="F27" t="n">
+        <v>1247</v>
+      </c>
+      <c r="G27" t="n">
+        <v>2806</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -972,6 +1138,12 @@
       <c r="E28" t="n">
         <v>0</v>
       </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>21937</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -991,6 +1163,12 @@
       <c r="E29" t="n">
         <v>8</v>
       </c>
+      <c r="F29" t="n">
+        <v>6416</v>
+      </c>
+      <c r="G29" t="n">
+        <v>36418</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1010,6 +1188,12 @@
       <c r="E30" t="n">
         <v>0</v>
       </c>
+      <c r="F30" t="n">
+        <v>3577</v>
+      </c>
+      <c r="G30" t="n">
+        <v>23924</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1029,6 +1213,12 @@
       <c r="E31" t="n">
         <v>0</v>
       </c>
+      <c r="F31" t="n">
+        <v>1235</v>
+      </c>
+      <c r="G31" t="n">
+        <v>8400</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1048,6 +1238,12 @@
       <c r="E32" t="n">
         <v>0</v>
       </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>30666</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1067,6 +1263,12 @@
       <c r="E33" t="n">
         <v>0</v>
       </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>3666</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1086,6 +1288,12 @@
       <c r="E34" t="n">
         <v>5</v>
       </c>
+      <c r="F34" t="n">
+        <v>3288</v>
+      </c>
+      <c r="G34" t="n">
+        <v>36324</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1105,6 +1313,12 @@
       <c r="E35" t="n">
         <v>0</v>
       </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>33877</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1124,6 +1338,12 @@
       <c r="E36" t="n">
         <v>1</v>
       </c>
+      <c r="F36" t="n">
+        <v>8109</v>
+      </c>
+      <c r="G36" t="n">
+        <v>47435</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1143,6 +1363,12 @@
       <c r="E37" t="n">
         <v>0</v>
       </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>13070</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1162,6 +1388,12 @@
       <c r="E38" t="n">
         <v>5</v>
       </c>
+      <c r="F38" t="n">
+        <v>3860</v>
+      </c>
+      <c r="G38" t="n">
+        <v>47120</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1181,6 +1413,12 @@
       <c r="E39" t="n">
         <v>0</v>
       </c>
+      <c r="F39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" t="n">
+        <v>11008</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1200,6 +1438,12 @@
       <c r="E40" t="n">
         <v>0</v>
       </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>4857</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1219,6 +1463,12 @@
       <c r="E41" t="n">
         <v>0</v>
       </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>12973</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1238,6 +1488,12 @@
       <c r="E42" t="n">
         <v>0</v>
       </c>
+      <c r="F42" t="n">
+        <v>2731</v>
+      </c>
+      <c r="G42" t="n">
+        <v>31507</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1257,6 +1513,12 @@
       <c r="E43" t="n">
         <v>9</v>
       </c>
+      <c r="F43" t="n">
+        <v>12561</v>
+      </c>
+      <c r="G43" t="n">
+        <v>31677</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1276,6 +1538,12 @@
       <c r="E44" t="n">
         <v>0</v>
       </c>
+      <c r="F44" t="n">
+        <v>1506</v>
+      </c>
+      <c r="G44" t="n">
+        <v>1771</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1295,6 +1563,12 @@
       <c r="E45" t="n">
         <v>0</v>
       </c>
+      <c r="F45" t="n">
+        <v>1653</v>
+      </c>
+      <c r="G45" t="n">
+        <v>11070</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1314,6 +1588,12 @@
       <c r="E46" t="n">
         <v>0</v>
       </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>29417</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1333,6 +1613,12 @@
       <c r="E47" t="n">
         <v>1</v>
       </c>
+      <c r="F47" t="n">
+        <v>5772</v>
+      </c>
+      <c r="G47" t="n">
+        <v>60700</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1352,6 +1638,12 @@
       <c r="E48" t="n">
         <v>0</v>
       </c>
+      <c r="F48" t="n">
+        <v>421</v>
+      </c>
+      <c r="G48" t="n">
+        <v>28273</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1371,6 +1663,12 @@
       <c r="E49" t="n">
         <v>14</v>
       </c>
+      <c r="F49" t="n">
+        <v>9100</v>
+      </c>
+      <c r="G49" t="n">
+        <v>69451</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -1390,6 +1688,12 @@
       <c r="E50" t="n">
         <v>0</v>
       </c>
+      <c r="F50" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" t="n">
+        <v>37918</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -1409,6 +1713,12 @@
       <c r="E51" t="n">
         <v>0</v>
       </c>
+      <c r="F51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" t="n">
+        <v>9792</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -1428,6 +1738,12 @@
       <c r="E52" t="n">
         <v>0</v>
       </c>
+      <c r="F52" t="n">
+        <v>8664</v>
+      </c>
+      <c r="G52" t="n">
+        <v>47453</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -1447,6 +1763,12 @@
       <c r="E53" t="n">
         <v>0</v>
       </c>
+      <c r="F53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" t="n">
+        <v>20376</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -1466,6 +1788,12 @@
       <c r="E54" t="n">
         <v>0</v>
       </c>
+      <c r="F54" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" t="n">
+        <v>3642</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -1485,6 +1813,12 @@
       <c r="E55" t="n">
         <v>0</v>
       </c>
+      <c r="F55" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" t="n">
+        <v>7158</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -1504,6 +1838,12 @@
       <c r="E56" t="n">
         <v>2</v>
       </c>
+      <c r="F56" t="n">
+        <v>6917</v>
+      </c>
+      <c r="G56" t="n">
+        <v>55567</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -1523,6 +1863,12 @@
       <c r="E57" t="n">
         <v>0</v>
       </c>
+      <c r="F57" t="n">
+        <v>0</v>
+      </c>
+      <c r="G57" t="n">
+        <v>21894</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -1542,6 +1888,12 @@
       <c r="E58" t="n">
         <v>0</v>
       </c>
+      <c r="F58" t="n">
+        <v>100</v>
+      </c>
+      <c r="G58" t="n">
+        <v>16205</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -1561,6 +1913,12 @@
       <c r="E59" t="n">
         <v>0</v>
       </c>
+      <c r="F59" t="n">
+        <v>4965</v>
+      </c>
+      <c r="G59" t="n">
+        <v>35888</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -1580,6 +1938,12 @@
       <c r="E60" t="n">
         <v>0</v>
       </c>
+      <c r="F60" t="n">
+        <v>0</v>
+      </c>
+      <c r="G60" t="n">
+        <v>38393</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -1599,6 +1963,12 @@
       <c r="E61" t="n">
         <v>9</v>
       </c>
+      <c r="F61" t="n">
+        <v>8303</v>
+      </c>
+      <c r="G61" t="n">
+        <v>53319</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -1618,6 +1988,12 @@
       <c r="E62" t="n">
         <v>0</v>
       </c>
+      <c r="F62" t="n">
+        <v>0</v>
+      </c>
+      <c r="G62" t="n">
+        <v>8495</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -1637,6 +2013,12 @@
       <c r="E63" t="n">
         <v>0</v>
       </c>
+      <c r="F63" t="n">
+        <v>0</v>
+      </c>
+      <c r="G63" t="n">
+        <v>12242</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -1656,6 +2038,12 @@
       <c r="E64" t="n">
         <v>0</v>
       </c>
+      <c r="F64" t="n">
+        <v>0</v>
+      </c>
+      <c r="G64" t="n">
+        <v>17397</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -1675,6 +2063,12 @@
       <c r="E65" t="n">
         <v>0</v>
       </c>
+      <c r="F65" t="n">
+        <v>5005</v>
+      </c>
+      <c r="G65" t="n">
+        <v>47140</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -1694,6 +2088,12 @@
       <c r="E66" t="n">
         <v>0</v>
       </c>
+      <c r="F66" t="n">
+        <v>722</v>
+      </c>
+      <c r="G66" t="n">
+        <v>21279</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -1713,6 +2113,12 @@
       <c r="E67" t="n">
         <v>3</v>
       </c>
+      <c r="F67" t="n">
+        <v>8436</v>
+      </c>
+      <c r="G67" t="n">
+        <v>38787</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -1732,6 +2138,12 @@
       <c r="E68" t="n">
         <v>0</v>
       </c>
+      <c r="F68" t="n">
+        <v>0</v>
+      </c>
+      <c r="G68" t="n">
+        <v>4268</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -1751,6 +2163,12 @@
       <c r="E69" t="n">
         <v>3</v>
       </c>
+      <c r="F69" t="n">
+        <v>7551</v>
+      </c>
+      <c r="G69" t="n">
+        <v>67492</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -1770,6 +2188,12 @@
       <c r="E70" t="n">
         <v>0</v>
       </c>
+      <c r="F70" t="n">
+        <v>0</v>
+      </c>
+      <c r="G70" t="n">
+        <v>28277</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -1789,6 +2213,12 @@
       <c r="E71" t="n">
         <v>0</v>
       </c>
+      <c r="F71" t="n">
+        <v>903</v>
+      </c>
+      <c r="G71" t="n">
+        <v>29428</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -1808,6 +2238,12 @@
       <c r="E72" t="n">
         <v>0</v>
       </c>
+      <c r="F72" t="n">
+        <v>12802</v>
+      </c>
+      <c r="G72" t="n">
+        <v>33632</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -1827,6 +2263,12 @@
       <c r="E73" t="n">
         <v>0</v>
       </c>
+      <c r="F73" t="n">
+        <v>0</v>
+      </c>
+      <c r="G73" t="n">
+        <v>34259</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -1846,6 +2288,12 @@
       <c r="E74" t="n">
         <v>0</v>
       </c>
+      <c r="F74" t="n">
+        <v>0</v>
+      </c>
+      <c r="G74" t="n">
+        <v>13503</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -1865,6 +2313,12 @@
       <c r="E75" t="n">
         <v>0</v>
       </c>
+      <c r="F75" t="n">
+        <v>0</v>
+      </c>
+      <c r="G75" t="n">
+        <v>6674</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -1884,6 +2338,12 @@
       <c r="E76" t="n">
         <v>0</v>
       </c>
+      <c r="F76" t="n">
+        <v>316</v>
+      </c>
+      <c r="G76" t="n">
+        <v>25944</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -1903,6 +2363,12 @@
       <c r="E77" t="n">
         <v>6</v>
       </c>
+      <c r="F77" t="n">
+        <v>3367</v>
+      </c>
+      <c r="G77" t="n">
+        <v>40527</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -1922,6 +2388,12 @@
       <c r="E78" t="n">
         <v>1</v>
       </c>
+      <c r="F78" t="n">
+        <v>0</v>
+      </c>
+      <c r="G78" t="n">
+        <v>18623</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -1941,6 +2413,12 @@
       <c r="E79" t="n">
         <v>0</v>
       </c>
+      <c r="F79" t="n">
+        <v>3129</v>
+      </c>
+      <c r="G79" t="n">
+        <v>8025</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -1960,6 +2438,12 @@
       <c r="E80" t="n">
         <v>0</v>
       </c>
+      <c r="F80" t="n">
+        <v>0</v>
+      </c>
+      <c r="G80" t="n">
+        <v>8350</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -1979,6 +2463,12 @@
       <c r="E81" t="n">
         <v>0</v>
       </c>
+      <c r="F81" t="n">
+        <v>114</v>
+      </c>
+      <c r="G81" t="n">
+        <v>7798</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -1998,6 +2488,12 @@
       <c r="E82" t="n">
         <v>4</v>
       </c>
+      <c r="F82" t="n">
+        <v>1850</v>
+      </c>
+      <c r="G82" t="n">
+        <v>32739</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -2017,6 +2513,12 @@
       <c r="E83" t="n">
         <v>0</v>
       </c>
+      <c r="F83" t="n">
+        <v>0</v>
+      </c>
+      <c r="G83" t="n">
+        <v>35600</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -2035,6 +2537,12 @@
       </c>
       <c r="E84" t="n">
         <v>0</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0</v>
+      </c>
+      <c r="G84" t="n">
+        <v>5892</v>
       </c>
     </row>
   </sheetData>
